--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_16_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1585163.509124844</v>
+        <v>1539112.622785535</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9555550.367705442</v>
+        <v>9555550.367705448</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6482057.807406755</v>
+        <v>6482057.807406754</v>
       </c>
     </row>
     <row r="11">
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>308.0195363226926</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90.253378272592</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>137.5765846914097</v>
+      </c>
+      <c r="T11" t="n">
+        <v>128.9128766976223</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>333.6094813630181</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>92.31384634268372</v>
-      </c>
-      <c r="G11" t="n">
-        <v>346.5606280711382</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>212.9367548623747</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.00849829518964</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T12" t="n">
         <v>182.2763302767183</v>
@@ -1508,10 +1508,10 @@
         <v>216.236037254839</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>216.4668044801272</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>125.274059710012</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.35526432556462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.55270652665738</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>305.2506012050582</v>
       </c>
       <c r="E14" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>346.560628071138</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>346.560628071138</v>
       </c>
       <c r="H14" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.3193451898731</v>
+        <v>81.99007443331425</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T15" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.08195458463982</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>133.4342125015684</v>
+        <v>150.3744756671821</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V17" t="n">
-        <v>305.2506012050584</v>
+        <v>186.7057329311129</v>
       </c>
       <c r="W17" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.56650738979614</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.6625502664474</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>182.2763302767183</v>
@@ -1982,7 +1982,7 @@
         <v>216.236037254839</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4956037769637</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H19" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>15.87721246212019</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.31384634268372</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>346.560628071138</v>
       </c>
       <c r="G20" t="n">
-        <v>346.5606280711382</v>
+        <v>318.2017479131782</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>346.560628071138</v>
       </c>
       <c r="X20" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>94.87181015384215</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>216.236037254839</v>
       </c>
       <c r="V21" t="n">
-        <v>45.98196705268593</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T22" t="n">
-        <v>190.3437922877532</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U22" t="n">
         <v>284.2670350461492</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>98.08272591680385</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8461786748886</v>
+        <v>376.8257406999954</v>
       </c>
       <c r="H23" t="n">
-        <v>187.4156381161772</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T23" t="n">
         <v>212.9367548623747</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>126.3193451898731</v>
       </c>
       <c r="H24" t="n">
-        <v>88.10357856675394</v>
+        <v>88.10357856675432</v>
       </c>
       <c r="I24" t="n">
         <v>29.07268250710404</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>104.8941916140042</v>
       </c>
       <c r="H25" t="n">
         <v>149.4166814168865</v>
@@ -2529,7 +2529,7 @@
         <v>195.1816537197569</v>
       </c>
       <c r="T25" t="n">
-        <v>72.17812793893026</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>167.2882932662486</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>137.3979028525451</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2620,10 +2620,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2696,7 +2696,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790234</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>149.4166814168865</v>
       </c>
       <c r="I28" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>177.4963361009826</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>153.9644661998832</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>224.4855259333495</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>314.3290449618401</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8461786748886</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>308.0195363226926</v>
       </c>
       <c r="I29" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T29" t="n">
         <v>212.9367548623747</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.050600149170664</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.2900132023933</v>
       </c>
       <c r="H31" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>114.4764728907715</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>284.2670350461492</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>129.341128221984</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>348.8257240889919</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T32" t="n">
         <v>212.9367548623747</v>
       </c>
       <c r="U32" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.8510139934472</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.75497516749344</v>
+        <v>65.14430746122618</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>226.8285015305278</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>53.08185972234964</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>105.2649930508038</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>132.1801571202804</v>
+        <v>155.0346703701408</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1816537197569</v>
+        <v>161.326919040682</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U37" t="n">
-        <v>96.29385089413701</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.08185972234964</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>343.7916929535039</v>
+      </c>
+      <c r="F38" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="D38" t="n">
-        <v>346.5606280711382</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>4.984347827229985</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>102.5177280797596</v>
       </c>
       <c r="G39" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>216.236037254839</v>
@@ -3647,7 +3647,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>18.31449053365206</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>72.20112958914272</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>214.9972229324664</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>309.3891095208958</v>
       </c>
       <c r="W41" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>130.8545085451264</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>114.7607102165723</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.33271751672218</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H43" t="n">
         <v>149.4166814168865</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>254.1370548138247</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>305.2506012050583</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>87.67023998814901</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>131.5904105868636</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U45" t="n">
-        <v>216.236037254839</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>130.5567800832492</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>111.9211217831701</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>149.4166814168865</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T46" t="n">
         <v>226.8285015305278</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>12.26805266671973</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>471.0324001586425</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="C11" t="n">
-        <v>471.0324001586425</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="D11" t="n">
-        <v>471.0324001586425</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="E11" t="n">
-        <v>471.0324001586425</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="F11" t="n">
-        <v>377.7860907215883</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="G11" t="n">
-        <v>27.72485024569106</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="H11" t="n">
-        <v>27.72485024569106</v>
+        <v>118.8898788038648</v>
       </c>
       <c r="I11" t="n">
         <v>27.72485024569106</v>
@@ -5047,19 +5047,19 @@
         <v>362.9191640964613</v>
       </c>
       <c r="L11" t="n">
-        <v>534.777045013359</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M11" t="n">
-        <v>877.8720668037859</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N11" t="n">
-        <v>1063.728175337108</v>
+        <v>865.9151449776069</v>
       </c>
       <c r="O11" t="n">
-        <v>1228.391928602818</v>
+        <v>1030.578898243316</v>
       </c>
       <c r="P11" t="n">
-        <v>1340.896569186627</v>
+        <v>1143.083538827125</v>
       </c>
       <c r="Q11" t="n">
         <v>1386.242512284553</v>
@@ -5068,25 +5068,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S11" t="n">
-        <v>1386.242512284553</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="T11" t="n">
-        <v>1171.154881110437</v>
+        <v>1117.061238154217</v>
       </c>
       <c r="U11" t="n">
-        <v>1171.154881110437</v>
+        <v>1117.061238154217</v>
       </c>
       <c r="V11" t="n">
-        <v>1171.154881110437</v>
+        <v>780.0819640501586</v>
       </c>
       <c r="W11" t="n">
-        <v>1171.154881110437</v>
+        <v>780.0819640501586</v>
       </c>
       <c r="X11" t="n">
-        <v>1171.154881110437</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="Y11" t="n">
-        <v>821.0936406345397</v>
+        <v>430.0207235742614</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>397.9727138480492</v>
+        <v>435.383680846889</v>
       </c>
       <c r="C12" t="n">
-        <v>236.2690410890039</v>
+        <v>273.6800080878437</v>
       </c>
       <c r="D12" t="n">
-        <v>97.43040407921595</v>
+        <v>273.6800080878437</v>
       </c>
       <c r="E12" t="n">
-        <v>27.72485024569106</v>
+        <v>273.6800080878437</v>
       </c>
       <c r="F12" t="n">
-        <v>27.72485024569106</v>
+        <v>273.6800080878437</v>
       </c>
       <c r="G12" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="H12" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="I12" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J12" t="n">
-        <v>45.58002920790123</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K12" t="n">
-        <v>114.0496162558719</v>
+        <v>342.4614256282682</v>
       </c>
       <c r="L12" t="n">
-        <v>243.7524904022882</v>
+        <v>472.1642997746844</v>
       </c>
       <c r="M12" t="n">
-        <v>410.8370822317756</v>
+        <v>639.2488916041718</v>
       </c>
       <c r="N12" t="n">
-        <v>594.0509300253145</v>
+        <v>822.4627393977107</v>
       </c>
       <c r="O12" t="n">
-        <v>743.6022234269352</v>
+        <v>972.0140327993313</v>
       </c>
       <c r="P12" t="n">
-        <v>1086.697245217362</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q12" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R12" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S12" t="n">
-        <v>1386.242512284553</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="T12" t="n">
-        <v>1202.125006954534</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="U12" t="n">
-        <v>983.7047673031816</v>
+        <v>851.9540068278088</v>
       </c>
       <c r="V12" t="n">
-        <v>755.3091447515155</v>
+        <v>851.9540068278088</v>
       </c>
       <c r="W12" t="n">
-        <v>755.3091447515155</v>
+        <v>633.3006689690944</v>
       </c>
       <c r="X12" t="n">
-        <v>557.3921566293101</v>
+        <v>435.383680846889</v>
       </c>
       <c r="Y12" t="n">
-        <v>557.3921566293101</v>
+        <v>435.383680846889</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>600.9192135306016</v>
+        <v>306.2733187369096</v>
       </c>
       <c r="C13" t="n">
-        <v>600.9192135306016</v>
+        <v>306.2733187369096</v>
       </c>
       <c r="D13" t="n">
-        <v>447.8473203583643</v>
+        <v>179.7338644843722</v>
       </c>
       <c r="E13" t="n">
-        <v>295.8383061196831</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="F13" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G13" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H13" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I13" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J13" t="n">
-        <v>34.69382298257747</v>
+        <v>34.69382298257744</v>
       </c>
       <c r="K13" t="n">
         <v>176.4786849811306</v>
@@ -5208,43 +5208,43 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M13" t="n">
-        <v>679.4725500793054</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N13" t="n">
-        <v>940.3835686454993</v>
+        <v>940.3835686454992</v>
       </c>
       <c r="O13" t="n">
         <v>1170.458570641955</v>
       </c>
       <c r="P13" t="n">
-        <v>1346.043305565243</v>
+        <v>1346.043305565242</v>
       </c>
       <c r="Q13" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="R13" t="n">
-        <v>1386.242512284553</v>
+        <v>1279.437908752285</v>
       </c>
       <c r="S13" t="n">
-        <v>1386.242512284553</v>
+        <v>1082.284723176773</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.242512284553</v>
+        <v>853.165024661088</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.104093046018</v>
+        <v>853.165024661088</v>
       </c>
       <c r="V13" t="n">
-        <v>838.3687886044406</v>
+        <v>592.4297202195105</v>
       </c>
       <c r="W13" t="n">
-        <v>838.3687886044406</v>
+        <v>306.2733187369096</v>
       </c>
       <c r="X13" t="n">
-        <v>838.3687886044406</v>
+        <v>306.2733187369096</v>
       </c>
       <c r="Y13" t="n">
-        <v>784.4745822149814</v>
+        <v>306.2733187369096</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>780.0819640501586</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="C14" t="n">
-        <v>780.0819640501586</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="D14" t="n">
-        <v>780.0819640501586</v>
+        <v>1077.908571673382</v>
       </c>
       <c r="E14" t="n">
-        <v>430.0207235742614</v>
+        <v>727.8473311974851</v>
       </c>
       <c r="F14" t="n">
-        <v>430.0207235742614</v>
+        <v>377.786090721588</v>
       </c>
       <c r="G14" t="n">
-        <v>430.0207235742614</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H14" t="n">
-        <v>118.8898788038648</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I14" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J14" t="n">
         <v>275.9043523873164</v>
       </c>
       <c r="K14" t="n">
-        <v>560.7321944559628</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L14" t="n">
-        <v>698.6644442667158</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M14" t="n">
-        <v>877.8720668037859</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N14" t="n">
-        <v>1063.728175337108</v>
+        <v>865.9151449776069</v>
       </c>
       <c r="O14" t="n">
-        <v>1228.391928602818</v>
+        <v>1030.578898243316</v>
       </c>
       <c r="P14" t="n">
-        <v>1340.896569186627</v>
+        <v>1340.896569186626</v>
       </c>
       <c r="Q14" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="R14" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S14" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T14" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="U14" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="V14" t="n">
-        <v>834.1756070063782</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="W14" t="n">
-        <v>834.1756070063782</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="X14" t="n">
-        <v>834.1756070063782</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.1756070063782</v>
+        <v>1386.242512284552</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>464.0518311194542</v>
+        <v>406.9405780582097</v>
       </c>
       <c r="C15" t="n">
-        <v>302.3481583604089</v>
+        <v>245.2369052991644</v>
       </c>
       <c r="D15" t="n">
-        <v>302.3481583604089</v>
+        <v>245.2369052991644</v>
       </c>
       <c r="E15" t="n">
-        <v>155.3201484172801</v>
+        <v>245.2369052991644</v>
       </c>
       <c r="F15" t="n">
-        <v>155.3201484172801</v>
+        <v>110.5431072490388</v>
       </c>
       <c r="G15" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H15" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I15" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J15" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K15" t="n">
-        <v>99.10159288993961</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8044670363559</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M15" t="n">
-        <v>395.8890588658433</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N15" t="n">
-        <v>594.0509300253145</v>
+        <v>741.3820691424884</v>
       </c>
       <c r="O15" t="n">
-        <v>743.6022234269352</v>
+        <v>890.9333625441091</v>
       </c>
       <c r="P15" t="n">
-        <v>1086.697245217362</v>
+        <v>1076.334014106393</v>
       </c>
       <c r="Q15" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173584</v>
       </c>
       <c r="R15" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S15" t="n">
-        <v>1386.242512284553</v>
+        <v>1254.491751809179</v>
       </c>
       <c r="T15" t="n">
-        <v>1202.125006954534</v>
+        <v>1254.491751809179</v>
       </c>
       <c r="U15" t="n">
-        <v>1126.284648788231</v>
+        <v>1036.071512157827</v>
       </c>
       <c r="V15" t="n">
-        <v>897.8890262365653</v>
+        <v>807.6758896061606</v>
       </c>
       <c r="W15" t="n">
-        <v>656.5731574698754</v>
+        <v>566.3600208394706</v>
       </c>
       <c r="X15" t="n">
-        <v>656.5731574698754</v>
+        <v>566.3600208394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>464.0518311194542</v>
+        <v>566.3600208394706</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.5068830755581</v>
+        <v>484.1079292234255</v>
       </c>
       <c r="C16" t="n">
-        <v>27.72485024569106</v>
+        <v>332.2145194585951</v>
       </c>
       <c r="D16" t="n">
-        <v>27.72485024569106</v>
+        <v>332.2145194585951</v>
       </c>
       <c r="E16" t="n">
-        <v>27.72485024569106</v>
+        <v>180.2055052199139</v>
       </c>
       <c r="F16" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="G16" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H16" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I16" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J16" t="n">
-        <v>34.69382298257747</v>
+        <v>34.69382298257739</v>
       </c>
       <c r="K16" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L16" t="n">
-        <v>415.5197821238344</v>
+        <v>415.5197821238345</v>
       </c>
       <c r="M16" t="n">
-        <v>679.4725500793052</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N16" t="n">
         <v>940.3835686454991</v>
       </c>
       <c r="O16" t="n">
-        <v>1170.458570641955</v>
+        <v>1170.458570641954</v>
       </c>
       <c r="P16" t="n">
         <v>1346.043305565242</v>
       </c>
       <c r="Q16" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="R16" t="n">
-        <v>1386.242512284553</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="S16" t="n">
-        <v>1189.089326709041</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="T16" t="n">
-        <v>1189.089326709041</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="U16" t="n">
-        <v>901.9509074705061</v>
+        <v>992.2994895137492</v>
       </c>
       <c r="V16" t="n">
-        <v>901.9509074705061</v>
+        <v>992.2994895137492</v>
       </c>
       <c r="W16" t="n">
-        <v>615.7945059879053</v>
+        <v>706.1430880311484</v>
       </c>
       <c r="X16" t="n">
-        <v>384.5420418832811</v>
+        <v>706.1430880311484</v>
       </c>
       <c r="Y16" t="n">
-        <v>162.5068830755581</v>
+        <v>484.1079292234255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="C17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="D17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="E17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="F17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="G17" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H17" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I17" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J17" t="n">
-        <v>63.10780392542661</v>
+        <v>58.27700866085738</v>
       </c>
       <c r="K17" t="n">
-        <v>150.1226156345715</v>
+        <v>401.372030451284</v>
       </c>
       <c r="L17" t="n">
-        <v>493.2176374249983</v>
+        <v>539.304280262037</v>
       </c>
       <c r="M17" t="n">
-        <v>836.3126592154251</v>
+        <v>718.511902799107</v>
       </c>
       <c r="N17" t="n">
-        <v>1022.168767748748</v>
+        <v>904.3680113324297</v>
       </c>
       <c r="O17" t="n">
-        <v>1186.832521014457</v>
+        <v>1069.031764598139</v>
       </c>
       <c r="P17" t="n">
-        <v>1299.337161598266</v>
+        <v>1340.896569186626</v>
       </c>
       <c r="Q17" t="n">
-        <v>1344.683104696192</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="R17" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S17" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T17" t="n">
-        <v>1386.242512284553</v>
+        <v>1171.154881110436</v>
       </c>
       <c r="U17" t="n">
-        <v>1386.242512284553</v>
+        <v>916.4389806228517</v>
       </c>
       <c r="V17" t="n">
-        <v>1077.908571673383</v>
+        <v>727.8473311974851</v>
       </c>
       <c r="W17" t="n">
-        <v>727.8473311974855</v>
+        <v>727.8473311974851</v>
       </c>
       <c r="X17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.7860907215883</v>
+        <v>377.786090721588</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>317.0238211763254</v>
+        <v>390.4481294048089</v>
       </c>
       <c r="C18" t="n">
-        <v>155.3201484172801</v>
+        <v>228.7444566457636</v>
       </c>
       <c r="D18" t="n">
-        <v>155.3201484172801</v>
+        <v>228.7444566457636</v>
       </c>
       <c r="E18" t="n">
-        <v>155.3201484172801</v>
+        <v>228.7444566457636</v>
       </c>
       <c r="F18" t="n">
-        <v>155.3201484172801</v>
+        <v>94.05065859563791</v>
       </c>
       <c r="G18" t="n">
-        <v>27.72485024569106</v>
+        <v>94.05065859563791</v>
       </c>
       <c r="H18" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I18" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J18" t="n">
         <v>192.9111683250751</v>
       </c>
       <c r="K18" t="n">
-        <v>399.4387473002954</v>
+        <v>352.8246567392356</v>
       </c>
       <c r="L18" t="n">
-        <v>742.5337690907222</v>
+        <v>482.5275308856519</v>
       </c>
       <c r="M18" t="n">
-        <v>909.6183609202096</v>
+        <v>649.6121227151393</v>
       </c>
       <c r="N18" t="n">
-        <v>1092.832208713749</v>
+        <v>832.8259705086782</v>
       </c>
       <c r="O18" t="n">
-        <v>1242.383502115369</v>
+        <v>982.3772639102988</v>
       </c>
       <c r="P18" t="n">
-        <v>1346.703483422432</v>
+        <v>1086.697245217361</v>
       </c>
       <c r="Q18" t="n">
-        <v>1375.879281173585</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="R18" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S18" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T18" t="n">
-        <v>1070.374246479161</v>
+        <v>1202.125006954534</v>
       </c>
       <c r="U18" t="n">
-        <v>851.9540068278088</v>
+        <v>983.7047673031809</v>
       </c>
       <c r="V18" t="n">
-        <v>623.5583842761428</v>
+        <v>983.7047673031809</v>
       </c>
       <c r="W18" t="n">
-        <v>382.2425155094528</v>
+        <v>742.388898536491</v>
       </c>
       <c r="X18" t="n">
-        <v>382.2425155094528</v>
+        <v>742.388898536491</v>
       </c>
       <c r="Y18" t="n">
-        <v>382.2425155094528</v>
+        <v>549.8675721860698</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>475.0663993551161</v>
+        <v>670.391437500377</v>
       </c>
       <c r="C19" t="n">
-        <v>475.0663993551161</v>
+        <v>500.7754679620573</v>
       </c>
       <c r="D19" t="n">
-        <v>475.0663993551161</v>
+        <v>347.70357478982</v>
       </c>
       <c r="E19" t="n">
-        <v>331.1314460450518</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="F19" t="n">
-        <v>178.6507910708289</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="G19" t="n">
-        <v>178.6507910708289</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H19" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I19" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J19" t="n">
-        <v>34.69382298257744</v>
+        <v>34.69382298257746</v>
       </c>
       <c r="K19" t="n">
         <v>176.4786849811306</v>
       </c>
       <c r="L19" t="n">
-        <v>415.5197821238347</v>
+        <v>415.5197821238345</v>
       </c>
       <c r="M19" t="n">
-        <v>679.4725500793054</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N19" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454991</v>
       </c>
       <c r="O19" t="n">
         <v>1170.458570641955</v>
@@ -5694,31 +5694,31 @@
         <v>1346.043305565242</v>
       </c>
       <c r="Q19" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="R19" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S19" t="n">
-        <v>1189.089326709041</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.089326709041</v>
+        <v>1157.122813768867</v>
       </c>
       <c r="U19" t="n">
-        <v>1189.089326709041</v>
+        <v>869.9843945303328</v>
       </c>
       <c r="V19" t="n">
-        <v>928.3540222674633</v>
+        <v>869.9843945303328</v>
       </c>
       <c r="W19" t="n">
-        <v>928.3540222674633</v>
+        <v>853.9468061847568</v>
       </c>
       <c r="X19" t="n">
-        <v>697.1015581628391</v>
+        <v>853.9468061847568</v>
       </c>
       <c r="Y19" t="n">
-        <v>475.0663993551161</v>
+        <v>853.9468061847568</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>727.8473311974855</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="C20" t="n">
-        <v>727.8473311974855</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="D20" t="n">
-        <v>727.8473311974855</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="E20" t="n">
-        <v>377.7860907215883</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="F20" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286993</v>
       </c>
       <c r="G20" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H20" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I20" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J20" t="n">
-        <v>200.4679897675209</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K20" t="n">
-        <v>287.4828014766658</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L20" t="n">
-        <v>425.4150512874188</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M20" t="n">
-        <v>604.6226738244889</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N20" t="n">
-        <v>790.4787823578115</v>
+        <v>1022.168767748747</v>
       </c>
       <c r="O20" t="n">
-        <v>955.1425356235208</v>
+        <v>1186.832521014456</v>
       </c>
       <c r="P20" t="n">
-        <v>1067.64717620733</v>
+        <v>1299.337161598266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1386.242512284553</v>
+        <v>1344.683104696191</v>
       </c>
       <c r="R20" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S20" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T20" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="U20" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="V20" t="n">
-        <v>1171.154881110437</v>
+        <v>1049.263238180493</v>
       </c>
       <c r="W20" t="n">
-        <v>1171.154881110437</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="X20" t="n">
-        <v>821.0936406345397</v>
+        <v>699.2019977045964</v>
       </c>
       <c r="Y20" t="n">
-        <v>821.0936406345397</v>
+        <v>699.2019977045964</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="C21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="D21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="E21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="F21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="G21" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H21" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I21" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J21" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K21" t="n">
-        <v>148.9176972394619</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L21" t="n">
-        <v>278.6205713858782</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M21" t="n">
-        <v>445.7051632153656</v>
+        <v>734.1786513098887</v>
       </c>
       <c r="N21" t="n">
-        <v>628.9190110089045</v>
+        <v>917.3924991034276</v>
       </c>
       <c r="O21" t="n">
-        <v>972.0140327993313</v>
+        <v>1242.383502115368</v>
       </c>
       <c r="P21" t="n">
-        <v>1076.334014106394</v>
+        <v>1346.703483422431</v>
       </c>
       <c r="Q21" t="n">
-        <v>1375.879281173585</v>
+        <v>1375.879281173584</v>
       </c>
       <c r="R21" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="S21" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284552</v>
       </c>
       <c r="T21" t="n">
         <v>1202.125006954534</v>
       </c>
       <c r="U21" t="n">
-        <v>983.7047673031816</v>
+        <v>983.7047673031809</v>
       </c>
       <c r="V21" t="n">
-        <v>937.2583359368322</v>
+        <v>755.3091447515149</v>
       </c>
       <c r="W21" t="n">
-        <v>695.9424671701422</v>
+        <v>513.9932759848249</v>
       </c>
       <c r="X21" t="n">
-        <v>498.0254790479368</v>
+        <v>316.0762878626194</v>
       </c>
       <c r="Y21" t="n">
-        <v>305.5041526975156</v>
+        <v>123.5549615121983</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>501.2471086975991</v>
+        <v>180.7967434179283</v>
       </c>
       <c r="C22" t="n">
-        <v>501.2471086975991</v>
+        <v>180.7967434179283</v>
       </c>
       <c r="D22" t="n">
-        <v>348.1752155253618</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="E22" t="n">
-        <v>348.1752155253618</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="F22" t="n">
-        <v>195.6945605511389</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="G22" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="H22" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="I22" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569104</v>
       </c>
       <c r="J22" t="n">
-        <v>34.69382298257756</v>
+        <v>34.69382298257746</v>
       </c>
       <c r="K22" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L22" t="n">
-        <v>415.5197821238346</v>
+        <v>415.5197821238345</v>
       </c>
       <c r="M22" t="n">
-        <v>679.4725500793054</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N22" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454991</v>
       </c>
       <c r="O22" t="n">
         <v>1170.458570641955</v>
@@ -5934,28 +5934,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R22" t="n">
-        <v>1386.242512284553</v>
+        <v>1279.437908752285</v>
       </c>
       <c r="S22" t="n">
-        <v>1386.242512284553</v>
+        <v>1082.284723176773</v>
       </c>
       <c r="T22" t="n">
-        <v>1193.976055428236</v>
+        <v>853.165024661088</v>
       </c>
       <c r="U22" t="n">
-        <v>906.8376361897018</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="V22" t="n">
-        <v>906.8376361897018</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="W22" t="n">
-        <v>906.8376361897018</v>
+        <v>279.8702039399524</v>
       </c>
       <c r="X22" t="n">
-        <v>906.8376361897018</v>
+        <v>279.8702039399524</v>
       </c>
       <c r="Y22" t="n">
-        <v>684.8024773819789</v>
+        <v>180.7967434179283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2215.603215390403</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="C23" t="n">
-        <v>1833.66945672321</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="D23" t="n">
-        <v>1460.845491950433</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="E23" t="n">
-        <v>1066.05977205654</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="F23" t="n">
-        <v>651.9085813667105</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="G23" t="n">
-        <v>237.9225423011663</v>
+        <v>359.744661701687</v>
       </c>
       <c r="H23" t="n">
         <v>48.61381693129037</v>
@@ -5995,46 +5995,46 @@
         <v>800.9832767611495</v>
       </c>
       <c r="L23" t="n">
-        <v>1402.579261285868</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M23" t="n">
-        <v>1649.071008104454</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N23" t="n">
-        <v>1834.927116637777</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O23" t="n">
-        <v>1999.590869903486</v>
+        <v>1817.125917877725</v>
       </c>
       <c r="P23" t="n">
-        <v>2112.095510487295</v>
+        <v>2343.785495878232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2430.690846564518</v>
+        <v>2389.131438976157</v>
       </c>
       <c r="R23" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S23" t="n">
-        <v>2430.690846564518</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="T23" t="n">
-        <v>2215.603215390403</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="U23" t="n">
-        <v>2215.603215390403</v>
+        <v>1821.921067739778</v>
       </c>
       <c r="V23" t="n">
-        <v>2215.603215390403</v>
+        <v>1484.941793635719</v>
       </c>
       <c r="W23" t="n">
-        <v>2215.603215390403</v>
+        <v>1122.40686349332</v>
       </c>
       <c r="X23" t="n">
-        <v>2215.603215390403</v>
+        <v>740.3767230148137</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.603215390403</v>
+        <v>740.3767230148137</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>876.8330925355307</v>
+        <v>876.833092535531</v>
       </c>
       <c r="C24" t="n">
-        <v>715.1294197764855</v>
+        <v>715.1294197764857</v>
       </c>
       <c r="D24" t="n">
-        <v>576.2907827666977</v>
+        <v>576.2907827666978</v>
       </c>
       <c r="E24" t="n">
-        <v>429.2627728235689</v>
+        <v>429.262772823569</v>
       </c>
       <c r="F24" t="n">
-        <v>294.5689747734432</v>
+        <v>294.5689747734434</v>
       </c>
       <c r="G24" t="n">
-        <v>166.9736766018541</v>
+        <v>166.9736766018544</v>
       </c>
       <c r="H24" t="n">
-        <v>77.98016289806219</v>
+        <v>77.98016289806213</v>
       </c>
       <c r="I24" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J24" t="n">
-        <v>51.52097252756822</v>
+        <v>106.6819503181413</v>
       </c>
       <c r="K24" t="n">
-        <v>460.3573196107276</v>
+        <v>515.5182974013007</v>
       </c>
       <c r="L24" t="n">
-        <v>590.0601937571439</v>
+        <v>1117.114281926019</v>
       </c>
       <c r="M24" t="n">
-        <v>757.1447855866313</v>
+        <v>1284.198873755506</v>
       </c>
       <c r="N24" t="n">
-        <v>1275.374268631017</v>
+        <v>1467.412721549045</v>
       </c>
       <c r="O24" t="n">
-        <v>1876.970253155735</v>
+        <v>1616.964014950666</v>
       </c>
       <c r="P24" t="n">
-        <v>2391.151817702397</v>
+        <v>2131.145579497328</v>
       </c>
       <c r="Q24" t="n">
-        <v>2420.32761545355</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R24" t="n">
         <v>2430.690846564518</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>619.6622278691016</v>
+        <v>573.1353017979131</v>
       </c>
       <c r="C25" t="n">
-        <v>619.6622278691016</v>
+        <v>573.1353017979131</v>
       </c>
       <c r="D25" t="n">
-        <v>619.6622278691016</v>
+        <v>573.1353017979131</v>
       </c>
       <c r="E25" t="n">
-        <v>467.6532136304203</v>
+        <v>421.126287559232</v>
       </c>
       <c r="F25" t="n">
-        <v>315.1725586561975</v>
+        <v>421.126287559232</v>
       </c>
       <c r="G25" t="n">
         <v>315.1725586561975</v>
@@ -6177,22 +6177,22 @@
         <v>1209.97829339464</v>
       </c>
       <c r="T25" t="n">
-        <v>1137.071093456327</v>
+        <v>1209.97829339464</v>
       </c>
       <c r="U25" t="n">
-        <v>1137.071093456327</v>
+        <v>1209.97829339464</v>
       </c>
       <c r="V25" t="n">
-        <v>1137.071093456327</v>
+        <v>1209.97829339464</v>
       </c>
       <c r="W25" t="n">
-        <v>850.9146919737258</v>
+        <v>1209.97829339464</v>
       </c>
       <c r="X25" t="n">
-        <v>619.6622278691016</v>
+        <v>978.7258292900159</v>
       </c>
       <c r="Y25" t="n">
-        <v>619.6622278691016</v>
+        <v>756.6906704822929</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>601.5507680782363</v>
+        <v>1337.494494667436</v>
       </c>
       <c r="C26" t="n">
-        <v>601.5507680782363</v>
+        <v>1337.494494667436</v>
       </c>
       <c r="D26" t="n">
-        <v>601.5507680782363</v>
+        <v>1168.516420661124</v>
       </c>
       <c r="E26" t="n">
-        <v>601.5507680782363</v>
+        <v>773.7307007672312</v>
       </c>
       <c r="F26" t="n">
-        <v>187.3995773884066</v>
+        <v>773.7307007672312</v>
       </c>
       <c r="G26" t="n">
-        <v>48.61381693129037</v>
+        <v>359.744661701687</v>
       </c>
       <c r="H26" t="n">
         <v>48.61381693129037</v>
@@ -6229,25 +6229,25 @@
         <v>79.1659753464567</v>
       </c>
       <c r="K26" t="n">
-        <v>583.3559330346906</v>
+        <v>166.1807870556016</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.951917559409</v>
+        <v>304.1130368663546</v>
       </c>
       <c r="M26" t="n">
-        <v>1786.547902084127</v>
+        <v>483.3206594034247</v>
       </c>
       <c r="N26" t="n">
-        <v>2066.617102028714</v>
+        <v>1084.916643928143</v>
       </c>
       <c r="O26" t="n">
-        <v>2231.280855294423</v>
+        <v>1585.435932486788</v>
       </c>
       <c r="P26" t="n">
-        <v>2343.785495878232</v>
+        <v>2112.095510487295</v>
       </c>
       <c r="Q26" t="n">
-        <v>2389.131438976157</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R26" t="n">
         <v>2430.690846564518</v>
@@ -6256,22 +6256,22 @@
         <v>2291.724599401478</v>
       </c>
       <c r="T26" t="n">
-        <v>2076.636968227363</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="U26" t="n">
-        <v>2076.636968227363</v>
+        <v>2037.008698913894</v>
       </c>
       <c r="V26" t="n">
-        <v>1739.657694123304</v>
+        <v>1700.029424809835</v>
       </c>
       <c r="W26" t="n">
-        <v>1377.122763980905</v>
+        <v>1337.494494667436</v>
       </c>
       <c r="X26" t="n">
-        <v>995.0926235023983</v>
+        <v>1337.494494667436</v>
       </c>
       <c r="Y26" t="n">
-        <v>601.5507680782363</v>
+        <v>1337.494494667436</v>
       </c>
     </row>
     <row r="27">
@@ -6284,49 +6284,49 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C27" t="n">
-        <v>715.1294197764854</v>
+        <v>715.1294197764855</v>
       </c>
       <c r="D27" t="n">
-        <v>576.2907827666975</v>
+        <v>576.2907827666977</v>
       </c>
       <c r="E27" t="n">
-        <v>429.2627728235686</v>
+        <v>429.2627728235689</v>
       </c>
       <c r="F27" t="n">
-        <v>294.568974773443</v>
+        <v>294.5689747734432</v>
       </c>
       <c r="G27" t="n">
-        <v>166.973676601854</v>
+        <v>166.9736766018541</v>
       </c>
       <c r="H27" t="n">
-        <v>77.98016289806213</v>
+        <v>77.98016289806219</v>
       </c>
       <c r="I27" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J27" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K27" t="n">
-        <v>460.3573196107276</v>
+        <v>622.6364820938338</v>
       </c>
       <c r="L27" t="n">
-        <v>1061.953304135446</v>
+        <v>752.33935624025</v>
       </c>
       <c r="M27" t="n">
-        <v>1554.568343071544</v>
+        <v>919.4239480697374</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.782190865083</v>
+        <v>1102.637795863276</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.333484266704</v>
+        <v>1606.600783839698</v>
       </c>
       <c r="P27" t="n">
-        <v>2401.515048813365</v>
+        <v>2120.782348386359</v>
       </c>
       <c r="Q27" t="n">
-        <v>2430.690846564518</v>
+        <v>2420.32761545355</v>
       </c>
       <c r="R27" t="n">
         <v>2430.690846564518</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>940.7038313467866</v>
+        <v>521.1647415334292</v>
       </c>
       <c r="C28" t="n">
-        <v>940.7038313467866</v>
+        <v>351.5487719951094</v>
       </c>
       <c r="D28" t="n">
-        <v>787.6319381745493</v>
+        <v>351.5487719951094</v>
       </c>
       <c r="E28" t="n">
-        <v>635.6229239358681</v>
+        <v>199.5397577564282</v>
       </c>
       <c r="F28" t="n">
-        <v>483.1422689616453</v>
+        <v>199.5397577564282</v>
       </c>
       <c r="G28" t="n">
-        <v>315.1725586561975</v>
+        <v>199.5397577564282</v>
       </c>
       <c r="H28" t="n">
-        <v>164.2466178310596</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="I28" t="n">
         <v>48.61381693129037</v>
@@ -6414,22 +6414,22 @@
         <v>1407.131478970152</v>
       </c>
       <c r="T28" t="n">
-        <v>1227.842250585321</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="U28" t="n">
-        <v>940.7038313467866</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="V28" t="n">
-        <v>940.7038313467866</v>
+        <v>1146.396174528575</v>
       </c>
       <c r="W28" t="n">
-        <v>940.7038313467866</v>
+        <v>860.2397730459738</v>
       </c>
       <c r="X28" t="n">
-        <v>940.7038313467866</v>
+        <v>704.720110217809</v>
       </c>
       <c r="Y28" t="n">
-        <v>940.7038313467866</v>
+        <v>704.720110217809</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1878.623941286344</v>
+        <v>1091.399938211557</v>
       </c>
       <c r="C29" t="n">
-        <v>1651.870884788011</v>
+        <v>1091.399938211557</v>
       </c>
       <c r="D29" t="n">
-        <v>1279.046920015234</v>
+        <v>1091.399938211557</v>
       </c>
       <c r="E29" t="n">
-        <v>1279.046920015234</v>
+        <v>773.8958523915167</v>
       </c>
       <c r="F29" t="n">
-        <v>864.8957293254048</v>
+        <v>359.744661701687</v>
       </c>
       <c r="G29" t="n">
-        <v>450.9096902598607</v>
+        <v>359.744661701687</v>
       </c>
       <c r="H29" t="n">
-        <v>139.7788454894641</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="I29" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J29" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K29" t="n">
-        <v>166.1807870556016</v>
+        <v>800.9832767611495</v>
       </c>
       <c r="L29" t="n">
-        <v>304.1130368663546</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M29" t="n">
-        <v>905.7090213910728</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N29" t="n">
-        <v>1091.565129924395</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O29" t="n">
         <v>1585.435932486788</v>
@@ -6490,25 +6490,25 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S29" t="n">
-        <v>2430.690846564518</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="T29" t="n">
-        <v>2215.603215390403</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="U29" t="n">
-        <v>2215.603215390403</v>
+        <v>1821.921067739778</v>
       </c>
       <c r="V29" t="n">
-        <v>1878.623941286344</v>
+        <v>1484.941793635719</v>
       </c>
       <c r="W29" t="n">
-        <v>1878.623941286344</v>
+        <v>1484.941793635719</v>
       </c>
       <c r="X29" t="n">
-        <v>1878.623941286344</v>
+        <v>1484.941793635719</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.623941286344</v>
+        <v>1091.399938211557</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C30" t="n">
-        <v>715.1294197764855</v>
+        <v>715.1294197764854</v>
       </c>
       <c r="D30" t="n">
-        <v>576.2907827666977</v>
+        <v>576.2907827666975</v>
       </c>
       <c r="E30" t="n">
-        <v>429.2627728235689</v>
+        <v>429.2627728235686</v>
       </c>
       <c r="F30" t="n">
-        <v>294.5689747734432</v>
+        <v>294.568974773443</v>
       </c>
       <c r="G30" t="n">
-        <v>166.9736766018541</v>
+        <v>166.973676601854</v>
       </c>
       <c r="H30" t="n">
         <v>77.98016289806213</v>
@@ -6542,25 +6542,25 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J30" t="n">
-        <v>213.8001350106744</v>
+        <v>51.52097252756822</v>
       </c>
       <c r="K30" t="n">
-        <v>282.2697220586451</v>
+        <v>119.9905595755389</v>
       </c>
       <c r="L30" t="n">
-        <v>883.8657065833634</v>
+        <v>249.6934337219552</v>
       </c>
       <c r="M30" t="n">
-        <v>1102.523651948447</v>
+        <v>416.7780255514426</v>
       </c>
       <c r="N30" t="n">
-        <v>1285.737499741985</v>
+        <v>1015.368030425947</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.333484266704</v>
+        <v>1616.964014950665</v>
       </c>
       <c r="P30" t="n">
-        <v>2401.515048813365</v>
+        <v>2131.145579497327</v>
       </c>
       <c r="Q30" t="n">
         <v>2430.690846564518</v>
@@ -6569,7 +6569,7 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S30" t="n">
-        <v>2298.940086089146</v>
+        <v>2298.940086089145</v>
       </c>
       <c r="T30" t="n">
         <v>2114.822580759127</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.222596482317</v>
+        <v>501.8322976748271</v>
       </c>
       <c r="C31" t="n">
-        <v>637.222596482317</v>
+        <v>332.2163281365074</v>
       </c>
       <c r="D31" t="n">
-        <v>637.222596482317</v>
+        <v>332.2163281365074</v>
       </c>
       <c r="E31" t="n">
-        <v>485.2135822436359</v>
+        <v>332.2163281365074</v>
       </c>
       <c r="F31" t="n">
-        <v>483.1422689616453</v>
+        <v>332.2163281365074</v>
       </c>
       <c r="G31" t="n">
-        <v>315.1725586561975</v>
+        <v>164.2466178310596</v>
       </c>
       <c r="H31" t="n">
         <v>164.2466178310596</v>
@@ -6645,28 +6645,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R31" t="n">
-        <v>1407.131478970152</v>
+        <v>1300.326875437884</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.131478970152</v>
+        <v>1103.173689862372</v>
       </c>
       <c r="T31" t="n">
-        <v>1407.131478970152</v>
+        <v>1103.173689862372</v>
       </c>
       <c r="U31" t="n">
-        <v>1119.993059731617</v>
+        <v>816.0352706238373</v>
       </c>
       <c r="V31" t="n">
-        <v>859.25775529004</v>
+        <v>685.3876663592069</v>
       </c>
       <c r="W31" t="n">
-        <v>859.25775529004</v>
+        <v>685.3876663592069</v>
       </c>
       <c r="X31" t="n">
-        <v>859.25775529004</v>
+        <v>685.3876663592069</v>
       </c>
       <c r="Y31" t="n">
-        <v>637.222596482317</v>
+        <v>685.3876663592069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1321.539720845963</v>
+        <v>1301.064972324694</v>
       </c>
       <c r="C32" t="n">
-        <v>1321.539720845963</v>
+        <v>1301.064972324694</v>
       </c>
       <c r="D32" t="n">
         <v>948.7157560731869</v>
@@ -6700,19 +6700,19 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J32" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K32" t="n">
-        <v>454.1124636259676</v>
+        <v>800.9832767611495</v>
       </c>
       <c r="L32" t="n">
-        <v>1055.708448150686</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M32" t="n">
-        <v>1234.916070687756</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N32" t="n">
-        <v>1420.772179221078</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O32" t="n">
         <v>1585.435932486788</v>
@@ -6727,25 +6727,25 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S32" t="n">
-        <v>2430.690846564518</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="T32" t="n">
-        <v>2215.603215390403</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="U32" t="n">
-        <v>1960.887314902818</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="V32" t="n">
-        <v>1960.887314902818</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="W32" t="n">
-        <v>1960.887314902818</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="X32" t="n">
-        <v>1960.887314902818</v>
+        <v>1694.606827748856</v>
       </c>
       <c r="Y32" t="n">
-        <v>1715.583260363982</v>
+        <v>1301.064972324694</v>
       </c>
     </row>
     <row r="33">
@@ -6758,55 +6758,55 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C33" t="n">
-        <v>715.1294197764854</v>
+        <v>715.1294197764855</v>
       </c>
       <c r="D33" t="n">
-        <v>576.2907827666975</v>
+        <v>576.2907827666977</v>
       </c>
       <c r="E33" t="n">
-        <v>429.2627728235686</v>
+        <v>429.2627728235689</v>
       </c>
       <c r="F33" t="n">
-        <v>294.568974773443</v>
+        <v>294.5689747734432</v>
       </c>
       <c r="G33" t="n">
-        <v>166.973676601854</v>
+        <v>166.9736766018541</v>
       </c>
       <c r="H33" t="n">
-        <v>77.98016289806213</v>
+        <v>77.98016289806225</v>
       </c>
       <c r="I33" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J33" t="n">
-        <v>213.8001350106744</v>
+        <v>106.6819503181413</v>
       </c>
       <c r="K33" t="n">
-        <v>282.2697220586451</v>
+        <v>515.5182974013007</v>
       </c>
       <c r="L33" t="n">
-        <v>883.8657065833634</v>
+        <v>1117.114281926019</v>
       </c>
       <c r="M33" t="n">
-        <v>1273.835642644538</v>
+        <v>1284.198873755506</v>
       </c>
       <c r="N33" t="n">
-        <v>1457.049490438077</v>
+        <v>1467.412721549045</v>
       </c>
       <c r="O33" t="n">
-        <v>1606.600783839697</v>
+        <v>1616.964014950666</v>
       </c>
       <c r="P33" t="n">
-        <v>2120.782348386359</v>
+        <v>2131.145579497328</v>
       </c>
       <c r="Q33" t="n">
-        <v>2420.32761545355</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R33" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S33" t="n">
-        <v>2298.940086089145</v>
+        <v>2298.940086089146</v>
       </c>
       <c r="T33" t="n">
         <v>2114.822580759127</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.6869999853373</v>
+        <v>825.0710304470175</v>
       </c>
       <c r="C34" t="n">
         <v>825.0710304470175</v>
@@ -6882,28 +6882,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R34" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S34" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="T34" t="n">
-        <v>1071.207176922199</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.207176922199</v>
+        <v>890.8733612159328</v>
       </c>
       <c r="V34" t="n">
-        <v>1071.207176922199</v>
+        <v>890.8733612159328</v>
       </c>
       <c r="W34" t="n">
-        <v>1071.207176922199</v>
+        <v>890.8733612159328</v>
       </c>
       <c r="X34" t="n">
-        <v>1071.207176922199</v>
+        <v>890.8733612159328</v>
       </c>
       <c r="Y34" t="n">
-        <v>1071.207176922199</v>
+        <v>890.8733612159328</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>484.114366530481</v>
+        <v>781.465371321071</v>
       </c>
       <c r="C35" t="n">
-        <v>484.114366530481</v>
+        <v>431.4041308451738</v>
       </c>
       <c r="D35" t="n">
-        <v>484.114366530481</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="E35" t="n">
-        <v>484.114366530481</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="F35" t="n">
-        <v>134.0531260545838</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="G35" t="n">
-        <v>134.0531260545838</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H35" t="n">
         <v>27.72485024569106</v>
@@ -6937,28 +6937,28 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J35" t="n">
-        <v>158.9085821791602</v>
+        <v>200.4679897675209</v>
       </c>
       <c r="K35" t="n">
-        <v>245.9233938883051</v>
+        <v>287.4828014766658</v>
       </c>
       <c r="L35" t="n">
-        <v>383.8556436990581</v>
+        <v>425.4150512874188</v>
       </c>
       <c r="M35" t="n">
-        <v>563.0632662361281</v>
+        <v>604.6226738244889</v>
       </c>
       <c r="N35" t="n">
-        <v>748.9193747694508</v>
+        <v>790.4787823578115</v>
       </c>
       <c r="O35" t="n">
-        <v>913.58312803516</v>
+        <v>955.1425356235208</v>
       </c>
       <c r="P35" t="n">
-        <v>1026.087768618969</v>
+        <v>1067.64717620733</v>
       </c>
       <c r="Q35" t="n">
-        <v>1344.683104696192</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="R35" t="n">
         <v>1386.242512284553</v>
@@ -6967,22 +6967,22 @@
         <v>1386.242512284553</v>
       </c>
       <c r="T35" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U35" t="n">
-        <v>1171.154881110437</v>
+        <v>1131.526611796968</v>
       </c>
       <c r="V35" t="n">
-        <v>834.1756070063782</v>
+        <v>1131.526611796968</v>
       </c>
       <c r="W35" t="n">
-        <v>834.1756070063782</v>
+        <v>1131.526611796968</v>
       </c>
       <c r="X35" t="n">
-        <v>484.114366530481</v>
+        <v>1131.526611796968</v>
       </c>
       <c r="Y35" t="n">
-        <v>484.114366530481</v>
+        <v>1131.526611796968</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>330.6236312723764</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="C36" t="n">
-        <v>330.6236312723764</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="D36" t="n">
-        <v>191.7849942625885</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="E36" t="n">
-        <v>191.7849942625885</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="F36" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G36" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H36" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I36" t="n">
         <v>27.72485024569106</v>
@@ -7019,25 +7019,25 @@
         <v>192.9111683250751</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3807553730458</v>
+        <v>536.0061901155019</v>
       </c>
       <c r="L36" t="n">
-        <v>391.0836295194621</v>
+        <v>665.7090642619182</v>
       </c>
       <c r="M36" t="n">
-        <v>558.1682213489495</v>
+        <v>832.7936560914056</v>
       </c>
       <c r="N36" t="n">
-        <v>741.3820691424884</v>
+        <v>1016.007503884945</v>
       </c>
       <c r="O36" t="n">
-        <v>1084.477090932915</v>
+        <v>1165.558797286565</v>
       </c>
       <c r="P36" t="n">
-        <v>1357.0667145334</v>
+        <v>1346.703483422432</v>
       </c>
       <c r="Q36" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R36" t="n">
         <v>1386.242512284553</v>
@@ -7055,13 +7055,13 @@
         <v>623.5583842761428</v>
       </c>
       <c r="W36" t="n">
-        <v>623.5583842761428</v>
+        <v>382.2425155094528</v>
       </c>
       <c r="X36" t="n">
-        <v>623.5583842761428</v>
+        <v>184.3255273872474</v>
       </c>
       <c r="Y36" t="n">
-        <v>490.0430740536373</v>
+        <v>27.72485024569106</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.1752155253618</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="C37" t="n">
-        <v>348.1752155253618</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="D37" t="n">
-        <v>348.1752155253618</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="E37" t="n">
-        <v>348.1752155253618</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="F37" t="n">
-        <v>195.6945605511389</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="G37" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H37" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I37" t="n">
         <v>27.72485024569106</v>
@@ -7119,28 +7119,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R37" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S37" t="n">
-        <v>1082.284723176773</v>
+        <v>1223.286028405076</v>
       </c>
       <c r="T37" t="n">
-        <v>1082.284723176773</v>
+        <v>994.1663298893914</v>
       </c>
       <c r="U37" t="n">
-        <v>985.0182071220887</v>
+        <v>707.0279106508567</v>
       </c>
       <c r="V37" t="n">
-        <v>985.0182071220887</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="W37" t="n">
-        <v>985.0182071220887</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="X37" t="n">
-        <v>753.7657430174645</v>
+        <v>446.2926062092793</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.7305842097416</v>
+        <v>446.2926062092793</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>727.8473311974855</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="C38" t="n">
-        <v>377.7860907215883</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="D38" t="n">
-        <v>27.72485024569106</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="E38" t="n">
-        <v>27.72485024569106</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="F38" t="n">
-        <v>27.72485024569106</v>
+        <v>338.8556950160877</v>
       </c>
       <c r="G38" t="n">
-        <v>27.72485024569106</v>
+        <v>338.8556950160877</v>
       </c>
       <c r="H38" t="n">
         <v>27.72485024569106</v>
@@ -7174,25 +7174,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J38" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K38" t="n">
-        <v>287.4828014766658</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L38" t="n">
-        <v>425.4150512874188</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M38" t="n">
-        <v>604.6226738244889</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N38" t="n">
-        <v>790.4787823578115</v>
+        <v>865.9151449776069</v>
       </c>
       <c r="O38" t="n">
-        <v>955.1425356235208</v>
+        <v>1030.578898243316</v>
       </c>
       <c r="P38" t="n">
-        <v>1067.64717620733</v>
+        <v>1143.083538827125</v>
       </c>
       <c r="Q38" t="n">
         <v>1386.242512284553</v>
@@ -7207,19 +7207,19 @@
         <v>1386.242512284553</v>
       </c>
       <c r="U38" t="n">
-        <v>1131.526611796968</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V38" t="n">
-        <v>1131.526611796968</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W38" t="n">
-        <v>781.465371321071</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="X38" t="n">
-        <v>781.465371321071</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="Y38" t="n">
-        <v>781.465371321071</v>
+        <v>1386.242512284553</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.7211891590316</v>
+        <v>307.6724668422174</v>
       </c>
       <c r="C39" t="n">
-        <v>189.7211891590316</v>
+        <v>307.6724668422174</v>
       </c>
       <c r="D39" t="n">
-        <v>189.7211891590316</v>
+        <v>307.6724668422174</v>
       </c>
       <c r="E39" t="n">
-        <v>184.6864943840519</v>
+        <v>160.6444568990887</v>
       </c>
       <c r="F39" t="n">
-        <v>184.6864943840519</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="G39" t="n">
         <v>57.09119621246282</v>
@@ -7253,22 +7253,22 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J39" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K39" t="n">
-        <v>99.10159288993961</v>
+        <v>384.4190855719098</v>
       </c>
       <c r="L39" t="n">
-        <v>228.8044670363559</v>
+        <v>514.121959718326</v>
       </c>
       <c r="M39" t="n">
-        <v>571.8994888267827</v>
+        <v>681.2065515478134</v>
       </c>
       <c r="N39" t="n">
-        <v>755.1133366203215</v>
+        <v>864.4203993413523</v>
       </c>
       <c r="O39" t="n">
-        <v>1098.208358410748</v>
+        <v>1013.971692742973</v>
       </c>
       <c r="P39" t="n">
         <v>1357.0667145334</v>
@@ -7280,25 +7280,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S39" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T39" t="n">
-        <v>1070.374246479161</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U39" t="n">
-        <v>851.9540068278088</v>
+        <v>1167.8222726332</v>
       </c>
       <c r="V39" t="n">
-        <v>623.5583842761428</v>
+        <v>939.426650081534</v>
       </c>
       <c r="W39" t="n">
-        <v>382.2425155094528</v>
+        <v>698.1107813148441</v>
       </c>
       <c r="X39" t="n">
-        <v>382.2425155094528</v>
+        <v>500.1937931926386</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.7211891590316</v>
+        <v>307.6724668422174</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>669.6096559767082</v>
+        <v>216.2880850738873</v>
       </c>
       <c r="C40" t="n">
-        <v>651.1101705891808</v>
+        <v>216.2880850738873</v>
       </c>
       <c r="D40" t="n">
-        <v>651.1101705891808</v>
+        <v>216.2880850738873</v>
       </c>
       <c r="E40" t="n">
-        <v>499.1011563504996</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="F40" t="n">
-        <v>346.6205013762767</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="G40" t="n">
-        <v>178.6507910708289</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="H40" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I40" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J40" t="n">
-        <v>34.69382298257733</v>
+        <v>34.69382298257747</v>
       </c>
       <c r="K40" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L40" t="n">
-        <v>415.5197821238344</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M40" t="n">
-        <v>679.4725500793052</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N40" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O40" t="n">
         <v>1170.458570641955</v>
       </c>
       <c r="P40" t="n">
-        <v>1346.043305565242</v>
+        <v>1346.043305565243</v>
       </c>
       <c r="Q40" t="n">
         <v>1386.242512284553</v>
@@ -7359,25 +7359,25 @@
         <v>1279.437908752285</v>
       </c>
       <c r="S40" t="n">
-        <v>1082.284723176773</v>
+        <v>1279.437908752285</v>
       </c>
       <c r="T40" t="n">
-        <v>853.165024661088</v>
+        <v>1050.3182102366</v>
       </c>
       <c r="U40" t="n">
-        <v>853.165024661088</v>
+        <v>763.1797909980655</v>
       </c>
       <c r="V40" t="n">
-        <v>853.165024661088</v>
+        <v>502.4444865564881</v>
       </c>
       <c r="W40" t="n">
-        <v>853.165024661088</v>
+        <v>216.2880850738873</v>
       </c>
       <c r="X40" t="n">
-        <v>853.165024661088</v>
+        <v>216.2880850738873</v>
       </c>
       <c r="Y40" t="n">
-        <v>853.165024661088</v>
+        <v>216.2880850738873</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.0587908568612</v>
+        <v>819.0123597556592</v>
       </c>
       <c r="C41" t="n">
-        <v>118.8898788038648</v>
+        <v>468.951119279762</v>
       </c>
       <c r="D41" t="n">
-        <v>118.8898788038648</v>
+        <v>468.951119279762</v>
       </c>
       <c r="E41" t="n">
-        <v>118.8898788038648</v>
+        <v>468.951119279762</v>
       </c>
       <c r="F41" t="n">
-        <v>118.8898788038648</v>
+        <v>468.951119279762</v>
       </c>
       <c r="G41" t="n">
         <v>118.8898788038648</v>
@@ -7411,22 +7411,22 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J41" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K41" t="n">
-        <v>145.2918203700023</v>
+        <v>519.1727868676021</v>
       </c>
       <c r="L41" t="n">
-        <v>283.2240701807552</v>
+        <v>657.1050366783551</v>
       </c>
       <c r="M41" t="n">
-        <v>462.4316927178253</v>
+        <v>836.3126592154251</v>
       </c>
       <c r="N41" t="n">
-        <v>805.5267145082521</v>
+        <v>1022.168767748748</v>
       </c>
       <c r="O41" t="n">
-        <v>970.1904677739615</v>
+        <v>1186.832521014457</v>
       </c>
       <c r="P41" t="n">
         <v>1299.337161598266</v>
@@ -7444,19 +7444,19 @@
         <v>1386.242512284553</v>
       </c>
       <c r="U41" t="n">
-        <v>1386.242512284553</v>
+        <v>1131.526611796968</v>
       </c>
       <c r="V41" t="n">
-        <v>1386.242512284553</v>
+        <v>819.0123597556592</v>
       </c>
       <c r="W41" t="n">
-        <v>1036.181271808656</v>
+        <v>819.0123597556592</v>
       </c>
       <c r="X41" t="n">
-        <v>686.1200313327583</v>
+        <v>819.0123597556592</v>
       </c>
       <c r="Y41" t="n">
-        <v>336.0587908568612</v>
+        <v>819.0123597556592</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>278.4220367085283</v>
+        <v>684.1307430261452</v>
       </c>
       <c r="C42" t="n">
-        <v>116.7183639494829</v>
+        <v>522.4270702670999</v>
       </c>
       <c r="D42" t="n">
-        <v>116.7183639494829</v>
+        <v>383.588433257312</v>
       </c>
       <c r="E42" t="n">
-        <v>116.7183639494829</v>
+        <v>251.4121619996086</v>
       </c>
       <c r="F42" t="n">
         <v>116.7183639494829</v>
@@ -7496,19 +7496,19 @@
         <v>99.10159288993961</v>
       </c>
       <c r="L42" t="n">
-        <v>406.6421651328949</v>
+        <v>228.8044670363559</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7371869233217</v>
+        <v>395.8890588658433</v>
       </c>
       <c r="N42" t="n">
-        <v>1092.832208713749</v>
+        <v>579.1029066593823</v>
       </c>
       <c r="O42" t="n">
-        <v>1242.383502115369</v>
+        <v>733.238992315967</v>
       </c>
       <c r="P42" t="n">
-        <v>1346.703483422432</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q42" t="n">
         <v>1375.879281173585</v>
@@ -7523,19 +7523,19 @@
         <v>1254.49175180918</v>
       </c>
       <c r="U42" t="n">
-        <v>1138.571842499511</v>
+        <v>1036.071512157827</v>
       </c>
       <c r="V42" t="n">
-        <v>910.1762199478449</v>
+        <v>1036.071512157827</v>
       </c>
       <c r="W42" t="n">
-        <v>668.8603511811549</v>
+        <v>1036.071512157827</v>
       </c>
       <c r="X42" t="n">
-        <v>470.9433630589494</v>
+        <v>1036.071512157827</v>
       </c>
       <c r="Y42" t="n">
-        <v>278.4220367085283</v>
+        <v>843.5501858074061</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>483.7316984817473</v>
+        <v>614.2623165147271</v>
       </c>
       <c r="C43" t="n">
-        <v>483.7316984817473</v>
+        <v>614.2623165147271</v>
       </c>
       <c r="D43" t="n">
-        <v>330.6598053095101</v>
+        <v>614.2623165147271</v>
       </c>
       <c r="E43" t="n">
-        <v>178.6507910708289</v>
+        <v>462.2533022760459</v>
       </c>
       <c r="F43" t="n">
-        <v>178.6507910708289</v>
+        <v>462.2533022760459</v>
       </c>
       <c r="G43" t="n">
-        <v>178.6507910708289</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H43" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I43" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J43" t="n">
-        <v>34.69382298257733</v>
+        <v>34.69382298257747</v>
       </c>
       <c r="K43" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L43" t="n">
-        <v>415.5197821238344</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M43" t="n">
-        <v>679.4725500793052</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N43" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O43" t="n">
         <v>1170.458570641955</v>
@@ -7593,28 +7593,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R43" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S43" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T43" t="n">
-        <v>1082.284723176773</v>
+        <v>1157.122813768868</v>
       </c>
       <c r="U43" t="n">
-        <v>1082.284723176773</v>
+        <v>900.418717997328</v>
       </c>
       <c r="V43" t="n">
-        <v>1082.284723176773</v>
+        <v>900.418717997328</v>
       </c>
       <c r="W43" t="n">
-        <v>796.1283216941717</v>
+        <v>614.2623165147271</v>
       </c>
       <c r="X43" t="n">
-        <v>564.8758575895475</v>
+        <v>614.2623165147271</v>
       </c>
       <c r="Y43" t="n">
-        <v>564.8758575895475</v>
+        <v>614.2623165147271</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1036.181271808656</v>
+        <v>777.4727334598122</v>
       </c>
       <c r="C44" t="n">
-        <v>686.1200313327583</v>
+        <v>427.411492983915</v>
       </c>
       <c r="D44" t="n">
-        <v>686.1200313327583</v>
+        <v>427.411492983915</v>
       </c>
       <c r="E44" t="n">
-        <v>336.0587908568612</v>
+        <v>427.411492983915</v>
       </c>
       <c r="F44" t="n">
-        <v>27.72485024569106</v>
+        <v>427.411492983915</v>
       </c>
       <c r="G44" t="n">
-        <v>27.72485024569106</v>
+        <v>338.8556950160877</v>
       </c>
       <c r="H44" t="n">
         <v>27.72485024569106</v>
@@ -7648,25 +7648,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J44" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K44" t="n">
-        <v>145.2918203700023</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L44" t="n">
-        <v>488.3868421604291</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M44" t="n">
-        <v>831.4818639508559</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N44" t="n">
-        <v>1022.168767748748</v>
+        <v>865.9151449776069</v>
       </c>
       <c r="O44" t="n">
-        <v>1186.832521014457</v>
+        <v>1030.578898243316</v>
       </c>
       <c r="P44" t="n">
-        <v>1299.337161598266</v>
+        <v>1143.083538827125</v>
       </c>
       <c r="Q44" t="n">
         <v>1344.683104696192</v>
@@ -7675,25 +7675,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S44" t="n">
-        <v>1386.242512284553</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="T44" t="n">
-        <v>1386.242512284553</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="U44" t="n">
-        <v>1386.242512284553</v>
+        <v>777.4727334598122</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.242512284553</v>
+        <v>777.4727334598122</v>
       </c>
       <c r="W44" t="n">
-        <v>1036.181271808656</v>
+        <v>777.4727334598122</v>
       </c>
       <c r="X44" t="n">
-        <v>1036.181271808656</v>
+        <v>777.4727334598122</v>
       </c>
       <c r="Y44" t="n">
-        <v>1036.181271808656</v>
+        <v>777.4727334598122</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>307.6724668422174</v>
+        <v>504.6615159244249</v>
       </c>
       <c r="C45" t="n">
-        <v>174.7528601888198</v>
+        <v>342.9578431653795</v>
       </c>
       <c r="D45" t="n">
-        <v>174.7528601888198</v>
+        <v>204.1192061555916</v>
       </c>
       <c r="E45" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="F45" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="G45" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="H45" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="I45" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J45" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K45" t="n">
-        <v>99.10159288993961</v>
+        <v>384.4190855719098</v>
       </c>
       <c r="L45" t="n">
-        <v>442.1966146803665</v>
+        <v>514.121959718326</v>
       </c>
       <c r="M45" t="n">
-        <v>760.1004180342899</v>
+        <v>681.2065515478134</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.195439824717</v>
+        <v>864.4203993413523</v>
       </c>
       <c r="O45" t="n">
-        <v>1252.746733226337</v>
+        <v>1013.971692742973</v>
       </c>
       <c r="P45" t="n">
         <v>1357.0667145334</v>
@@ -7754,25 +7754,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S45" t="n">
-        <v>1386.242512284553</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="T45" t="n">
-        <v>1386.242512284553</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="U45" t="n">
-        <v>1167.8222726332</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="V45" t="n">
-        <v>939.426650081534</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="W45" t="n">
-        <v>698.1107813148441</v>
+        <v>829.0583777124715</v>
       </c>
       <c r="X45" t="n">
-        <v>500.1937931926386</v>
+        <v>697.1828422748461</v>
       </c>
       <c r="Y45" t="n">
-        <v>307.6724668422174</v>
+        <v>504.6615159244249</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.1618087539991</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="C46" t="n">
-        <v>651.1101705891808</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="D46" t="n">
-        <v>651.1101705891808</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="E46" t="n">
-        <v>499.1011563504996</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="F46" t="n">
-        <v>346.6205013762767</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="G46" t="n">
         <v>178.6507910708289</v>
@@ -7806,7 +7806,7 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J46" t="n">
-        <v>34.69382298257744</v>
+        <v>34.69382298257747</v>
       </c>
       <c r="K46" t="n">
         <v>176.4786849811306</v>
@@ -7815,10 +7815,10 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M46" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N46" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454991</v>
       </c>
       <c r="O46" t="n">
         <v>1170.458570641955</v>
@@ -7830,28 +7830,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R46" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S46" t="n">
-        <v>1279.437908752285</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="T46" t="n">
-        <v>1050.3182102366</v>
+        <v>959.9696281933561</v>
       </c>
       <c r="U46" t="n">
-        <v>1050.3182102366</v>
+        <v>959.9696281933561</v>
       </c>
       <c r="V46" t="n">
-        <v>1050.3182102366</v>
+        <v>699.2343237517787</v>
       </c>
       <c r="W46" t="n">
-        <v>764.1618087539991</v>
+        <v>413.0779222691778</v>
       </c>
       <c r="X46" t="n">
-        <v>764.1618087539991</v>
+        <v>400.6859498785518</v>
       </c>
       <c r="Y46" t="n">
-        <v>764.1618087539991</v>
+        <v>178.6507910708289</v>
       </c>
     </row>
   </sheetData>
@@ -8695,10 +8695,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>34.26831424863113</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>165.5428275286433</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>199.8111417772745</v>
       </c>
       <c r="R11" t="n">
         <v>43.45214625067439</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>15.09901350094174</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>81.89966692446703</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>241.1869095791558</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.94584589107667</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>199.8111417772743</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>199.8111417772738</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>15.09901350094171</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>241.1869095791558</v>
+        <v>81.89966692446619</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>138.7668962480481</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L16" t="n">
         <v>211.2171120040207</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.879591176332532</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>258.6668788699816</v>
       </c>
       <c r="L17" t="n">
-        <v>207.2351232117917</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>165.5428275286433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>160.9698626309881</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>139.4525170982319</v>
+        <v>92.36757713756549</v>
       </c>
       <c r="L18" t="n">
-        <v>215.547623882839</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>143.6272536430945</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>157.8319421930709</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>50.3192973227498</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>177.7883130918578</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>195.4987155442486</v>
+        <v>177.2118278892123</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9643,25 +9643,25 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>468.3472067817831</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>67.96376190052152</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>352.0029363330507</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>55.71815938441729</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>476.6597074528303</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>338.3996315665121</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>456.6107991142401</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>468.3472067817831</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>426.6549110986346</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>95.16473879925684</v>
+        <v>419.9392686781774</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>339.2480154474096</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>476.6597074528303</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>328.818633441021</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>357.9916106816169</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>426.6549110986346</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>332.5323730269525</v>
+        <v>117.9726480593771</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
@@ -10190,19 +10190,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>476.6597074528303</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>52.09429650060173</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>419.5718758393592</v>
       </c>
       <c r="O30" t="n">
         <v>456.6107991142401</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>48.71026054161794</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>290.8400773438041</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>468.3472067817831</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.9726480593771</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
@@ -10427,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>55.71815938441729</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>476.6597074528303</v>
       </c>
       <c r="M33" t="n">
-        <v>225.1367113451383</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>101.6480540588917</v>
+        <v>143.6272536430945</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.3994290327839</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>195.4987155442487</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9693356499213</v>
+        <v>77.60071194828681</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>143.6272536430945</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>199.8111417772745</v>
       </c>
       <c r="R38" t="n">
         <v>43.45214625067439</v>
@@ -10901,25 +10901,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>124.2811416150141</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>177.7883130918579</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>195.4987155442487</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>156.0993685005948</v>
+        <v>241.1869095791558</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72711371954019</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>138.7668962480483</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>157.8319421930716</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>158.827185108186</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8303568085815</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>179.6340384813525</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>177.788313091858</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>161.4961353503918</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4.631103287842564</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>241.1869095791558</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72711371954019</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>138.7668962480483</v>
@@ -11235,7 +11235,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P43" t="n">
-        <v>175.5085323082534</v>
+        <v>175.5085323082532</v>
       </c>
       <c r="Q43" t="n">
         <v>84.9458458910769</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>207.2351232117917</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>165.5428275286432</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.879591176332582</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>157.8319421930717</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,25 +11375,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>124.2811416150141</v>
       </c>
       <c r="L45" t="n">
-        <v>215.5476238828389</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>152.3426379034707</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>161.4961353503918</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>241.1869095791558</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.54247605170076</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23269,16 +23269,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>317.6958324402476</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>63.28555060375044</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H11" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>84.02387816475243</v>
       </c>
       <c r="U11" t="n">
         <v>252.1687414827087</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>31.6492110025834</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>76.54923154850783</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>22.43590559889583</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>26.26711453050287</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
         <v>166.2900132023933</v>
@@ -23436,7 +23436,7 @@
         <v>149.4166814168865</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.459542894081</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.5503975961815</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>63.84512391999044</v>
       </c>
       <c r="E14" t="n">
-        <v>44.27723462381601</v>
+        <v>44.27723462381618</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>63.44905071179335</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375061</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U14" t="n">
         <v>252.1687414827087</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,13 +23582,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.32927075655888</v>
       </c>
       <c r="H15" t="n">
         <v>88.10357856675394</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U15" t="n">
-        <v>141.1540826701992</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -23655,16 +23655,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>34.48559734136808</v>
+        <v>17.54533417575445</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.2900132023933</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T16" t="n">
         <v>226.8285015305278</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>63.28555060375044</v>
+        <v>63.28555060375061</v>
       </c>
       <c r="H17" t="n">
         <v>308.0195363226926</v>
@@ -23785,19 +23785,19 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>28.35888015795962</v>
+        <v>146.9037484319052</v>
       </c>
       <c r="W17" t="n">
-        <v>12.34895276983679</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6492110025834</v>
+        <v>31.64921100258357</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.25874096365213</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H18" t="n">
-        <v>88.10357856675394</v>
+        <v>22.44102830030654</v>
       </c>
       <c r="I18" t="n">
         <v>29.07268250710404</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.993320319330678</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I19" t="n">
         <v>114.4764728907715</v>
@@ -23940,25 +23940,25 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>267.4176250056547</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.7892577801553</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
@@ -23977,13 +23977,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>44.27723462381601</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>63.44905071179335</v>
       </c>
       <c r="G20" t="n">
-        <v>63.28555060375044</v>
+        <v>91.6444307617104</v>
       </c>
       <c r="H20" t="n">
         <v>308.0195363226926</v>
@@ -24022,19 +24022,19 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U20" t="n">
         <v>252.1687414827087</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>12.34895276983696</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>62.95343819960613</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -24065,10 +24065,10 @@
         <v>126.3193451898731</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180.1296992734634</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24138,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H22" t="n">
         <v>149.4166814168865</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>36.48470924277458</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>121.7320813028418</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>33.02043797489318</v>
       </c>
       <c r="H23" t="n">
-        <v>120.6038982065154</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>90.253378272592</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2900132023933</v>
+        <v>61.39582158838917</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>154.6503735915975</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U25" t="n">
         <v>284.2670350461492</v>
@@ -24426,13 +24426,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>201.8074318588</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>272.4482758223435</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>90.253378272592</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U26" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>195.1816537197569</v>
       </c>
       <c r="T28" t="n">
-        <v>49.33216542954517</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>74.97547326369477</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24682,25 +24682,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>153.6288951471712</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>76.50881773311414</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>148.90524827531</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8285015305278</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>128.7868231751776</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24906,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>20.27000103605678</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -24982,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.7554228764732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.9648398300426</v>
+        <v>116.5755075363098</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S34" t="n">
         <v>195.1816537197569</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>43.54247605170076</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>316.013865402699</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>63.44905071179318</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H35" t="n">
-        <v>202.7545432718888</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I35" t="n">
         <v>90.253378272592</v>
@@ -25207,19 +25207,19 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U35" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>126.3193451898731</v>
@@ -25253,7 +25253,7 @@
         <v>88.10357856675394</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.41595596663657</v>
+        <v>35.56144271677618</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -25320,19 +25320,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H37" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>33.85473467907494</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>187.9731841520122</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>337.0212444004893</v>
+        <v>43.54247605170076</v>
       </c>
       <c r="C38" t="n">
-        <v>31.5537930093825</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>22.53509705391048</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>47.04616974145029</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>63.44905071179318</v>
       </c>
       <c r="G38" t="n">
         <v>409.8461786748886</v>
       </c>
       <c r="H38" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>90.253378272592</v>
@@ -25447,13 +25447,13 @@
         <v>212.9367548623747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>12.34895276983679</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -25478,13 +25478,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>140.5733820164675</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>30.82913198986483</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H39" t="n">
         <v>88.10357856675394</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>149.6053193092845</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>78.28779450715162</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I40" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,7 +25630,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>163.1171981480543</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25642,7 +25642,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H41" t="n">
         <v>308.0195363226926</v>
@@ -25684,19 +25684,19 @@
         <v>212.9367548623747</v>
       </c>
       <c r="U41" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>24.22037184212223</v>
       </c>
       <c r="W41" t="n">
-        <v>12.34895276983679</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>14.70322129857112</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>126.3193451898731</v>
@@ -25763,16 +25763,16 @@
         <v>182.2763302767183</v>
       </c>
       <c r="U42" t="n">
-        <v>101.4753270382667</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.3870974808138</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2670350461492</v>
+        <v>30.12998023232453</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25873,16 +25873,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>44.27723462381601</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>104.759077577873</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8461786748886</v>
+        <v>322.1759386867396</v>
       </c>
       <c r="H44" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>90.253378272592</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>12.34895276983679</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25946,10 +25946,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>28.49622544459123</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>88.10357856675394</v>
       </c>
       <c r="I45" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>65.38103815773417</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>55.99868805976638</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>284.2670350461492</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>216.6718867968582</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425376.7248564267</v>
+        <v>425376.7248564268</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425376.7248564268</v>
+        <v>425376.7248564267</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>425376.7248564267</v>
+        <v>425376.7248564266</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>425376.7248564268</v>
+        <v>425376.7248564266</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593275.1897875166</v>
+        <v>593275.1897875167</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593275.1897875168</v>
+        <v>593275.1897875166</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>593275.1897875166</v>
+        <v>593275.1897875165</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593275.1897875165</v>
+        <v>593275.1897875168</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>425376.7248564269</v>
+        <v>425376.7248564267</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>425376.7248564267</v>
+        <v>425376.7248564268</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425376.7248564267</v>
+        <v>425376.7248564268</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>612701.3052058434</v>
+      </c>
+      <c r="C2" t="n">
         <v>612701.3052058435</v>
       </c>
-      <c r="C2" t="n">
-        <v>612701.3052058432</v>
-      </c>
       <c r="D2" t="n">
-        <v>612701.3052058434</v>
+        <v>612701.3052058435</v>
       </c>
       <c r="E2" t="n">
+        <v>326667.2576090963</v>
+      </c>
+      <c r="F2" t="n">
         <v>326667.2576090964</v>
-      </c>
-      <c r="F2" t="n">
-        <v>326667.2576090965</v>
       </c>
       <c r="G2" t="n">
         <v>326667.2576090964</v>
@@ -26340,22 +26340,22 @@
         <v>425567.6579435345</v>
       </c>
       <c r="K2" t="n">
-        <v>425567.6579435346</v>
+        <v>425567.6579435345</v>
       </c>
       <c r="L2" t="n">
-        <v>425567.6579435344</v>
+        <v>425567.6579435343</v>
       </c>
       <c r="M2" t="n">
+        <v>326667.2576090964</v>
+      </c>
+      <c r="N2" t="n">
         <v>326667.2576090965</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>326667.2576090965</v>
+      </c>
+      <c r="P2" t="n">
         <v>326667.2576090964</v>
-      </c>
-      <c r="O2" t="n">
-        <v>326667.2576090966</v>
-      </c>
-      <c r="P2" t="n">
-        <v>326667.2576090965</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69435.18637501566</v>
+        <v>69435.18637501572</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21294.11908386379</v>
+        <v>21294.11908386378</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>37759.87701934842</v>
       </c>
       <c r="F4" t="n">
-        <v>37759.8770193484</v>
+        <v>37759.87701934838</v>
       </c>
       <c r="G4" t="n">
-        <v>37759.87701934842</v>
+        <v>37759.87701934838</v>
       </c>
       <c r="H4" t="n">
-        <v>37759.87701934842</v>
+        <v>37759.87701934838</v>
       </c>
       <c r="I4" t="n">
         <v>88403.31995154523</v>
       </c>
       <c r="J4" t="n">
-        <v>88403.31995154523</v>
+        <v>88403.31995154521</v>
       </c>
       <c r="K4" t="n">
         <v>88403.31995154521</v>
       </c>
       <c r="L4" t="n">
-        <v>88403.3199515452</v>
+        <v>88403.31995154523</v>
       </c>
       <c r="M4" t="n">
         <v>37759.87701934842</v>
       </c>
       <c r="N4" t="n">
-        <v>37759.87701934842</v>
+        <v>37759.87701934841</v>
       </c>
       <c r="O4" t="n">
-        <v>37759.87701934842</v>
+        <v>37759.87701934841</v>
       </c>
       <c r="P4" t="n">
         <v>37759.87701934841</v>
@@ -26481,13 +26481,13 @@
         <v>32441.13488836201</v>
       </c>
       <c r="F5" t="n">
-        <v>32441.13488836201</v>
+        <v>32441.134888362</v>
       </c>
       <c r="G5" t="n">
-        <v>32441.13488836201</v>
+        <v>32441.134888362</v>
       </c>
       <c r="H5" t="n">
-        <v>32441.13488836201</v>
+        <v>32441.134888362</v>
       </c>
       <c r="I5" t="n">
         <v>48316.74956941749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172929.0497809441</v>
+        <v>172885.3640562721</v>
       </c>
       <c r="C6" t="n">
-        <v>172929.0497809438</v>
+        <v>172885.3640562722</v>
       </c>
       <c r="D6" t="n">
-        <v>172929.049780944</v>
+        <v>172885.3640562722</v>
       </c>
       <c r="E6" t="n">
-        <v>-266040.8728481739</v>
+        <v>-275023.1225602443</v>
       </c>
       <c r="F6" t="n">
-        <v>256466.2457013861</v>
+        <v>247483.9959893158</v>
       </c>
       <c r="G6" t="n">
-        <v>256466.245701386</v>
+        <v>247483.9959893157</v>
       </c>
       <c r="H6" t="n">
-        <v>256466.2457013859</v>
+        <v>247483.9959893158</v>
       </c>
       <c r="I6" t="n">
-        <v>219412.4020475561</v>
+        <v>213520.789845937</v>
       </c>
       <c r="J6" t="n">
-        <v>288847.5884225718</v>
+        <v>282955.9762209528</v>
       </c>
       <c r="K6" t="n">
-        <v>288847.5884225719</v>
+        <v>282955.9762209528</v>
       </c>
       <c r="L6" t="n">
-        <v>288847.5884225718</v>
+        <v>282955.9762209525</v>
       </c>
       <c r="M6" t="n">
-        <v>235172.1266175222</v>
+        <v>226189.8769054519</v>
       </c>
       <c r="N6" t="n">
-        <v>256466.2457013859</v>
+        <v>247483.9959893157</v>
       </c>
       <c r="O6" t="n">
-        <v>256466.2457013862</v>
+        <v>247483.9959893157</v>
       </c>
       <c r="P6" t="n">
-        <v>256466.2457013861</v>
+        <v>247483.9959893156</v>
       </c>
     </row>
   </sheetData>
@@ -26801,13 +26801,13 @@
         <v>346.5606280711382</v>
       </c>
       <c r="F4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="G4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="H4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.560628071138</v>
       </c>
       <c r="I4" t="n">
         <v>607.6727116411296</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>261.1120835699913</v>
+        <v>261.1120835699916</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>85.44854450114681</v>
+        <v>85.44854450114678</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>87.89374920115645</v>
       </c>
       <c r="L11" t="n">
-        <v>173.5938191079776</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M11" t="n">
-        <v>346.5606280711382</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N11" t="n">
         <v>187.7334429629522</v>
@@ -35430,7 +35430,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.80398292719772</v>
+        <v>245.6151247044722</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.03553430526281</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K12" t="n">
-        <v>69.16119903835425</v>
+        <v>151.0608659628213</v>
       </c>
       <c r="L12" t="n">
         <v>131.0130041882992</v>
@@ -35506,13 +35506,13 @@
         <v>151.0619125268895</v>
       </c>
       <c r="P12" t="n">
-        <v>346.5606280711382</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q12" t="n">
         <v>302.5709768355462</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>177.3583181043309</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.60525931243438</v>
+        <v>40.60525931243461</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>250.6863657996215</v>
       </c>
       <c r="K14" t="n">
-        <v>287.7048909784308</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L14" t="n">
         <v>139.3255048593464</v>
@@ -35664,7 +35664,7 @@
         <v>166.3270235007165</v>
       </c>
       <c r="P14" t="n">
-        <v>113.6410510947566</v>
+        <v>313.4521928720304</v>
       </c>
       <c r="Q14" t="n">
         <v>45.80398292719772</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K15" t="n">
         <v>69.16119903835425</v>
@@ -35737,19 +35737,19 @@
         <v>168.7723149792803</v>
       </c>
       <c r="N15" t="n">
-        <v>200.1635062216881</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O15" t="n">
         <v>151.0619125268895</v>
       </c>
       <c r="P15" t="n">
-        <v>346.5606280711382</v>
+        <v>187.2733854164486</v>
       </c>
       <c r="Q15" t="n">
         <v>302.5709768355462</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>7.039366400895368</v>
       </c>
       <c r="K16" t="n">
-        <v>143.2170323217707</v>
+        <v>143.2170323217709</v>
       </c>
       <c r="L16" t="n">
         <v>241.455653679499</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>35.74035725225813</v>
+        <v>30.8607660759256</v>
       </c>
       <c r="K17" t="n">
-        <v>87.89374920115645</v>
+        <v>346.560628071138</v>
       </c>
       <c r="L17" t="n">
-        <v>346.5606280711382</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M17" t="n">
-        <v>346.5606280711382</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N17" t="n">
         <v>187.7334429629522</v>
@@ -35901,13 +35901,13 @@
         <v>166.3270235007165</v>
       </c>
       <c r="P17" t="n">
-        <v>113.6410510947566</v>
+        <v>274.6109137257447</v>
       </c>
       <c r="Q17" t="n">
         <v>45.80398292719772</v>
       </c>
       <c r="R17" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>166.8548667468526</v>
       </c>
       <c r="K18" t="n">
-        <v>208.6137161365862</v>
+        <v>161.5287761759197</v>
       </c>
       <c r="L18" t="n">
-        <v>346.5606280711382</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M18" t="n">
         <v>168.7723149792803</v>
@@ -35983,10 +35983,10 @@
         <v>105.3737184919824</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R18" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>177.3583181043309</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.60525931243461</v>
+        <v>40.60525931243392</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>174.4880197190201</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K20" t="n">
         <v>87.89374920115645</v>
@@ -36132,7 +36132,7 @@
         <v>181.017800542495</v>
       </c>
       <c r="N20" t="n">
-        <v>187.7334429629522</v>
+        <v>345.565385156023</v>
       </c>
       <c r="O20" t="n">
         <v>166.3270235007165</v>
@@ -36141,10 +36141,10 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q20" t="n">
-        <v>321.8134707850738</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K21" t="n">
-        <v>119.4804963611041</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L21" t="n">
         <v>131.0130041882992</v>
       </c>
       <c r="M21" t="n">
-        <v>168.7723149792803</v>
+        <v>346.560628071138</v>
       </c>
       <c r="N21" t="n">
         <v>185.0644927207464</v>
       </c>
       <c r="O21" t="n">
-        <v>346.5606280711382</v>
+        <v>328.2737404161019</v>
       </c>
       <c r="P21" t="n">
         <v>105.3737184919824</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.5709768355462</v>
+        <v>29.47050277894239</v>
       </c>
       <c r="R21" t="n">
         <v>10.46791021309912</v>
@@ -36363,25 +36363,25 @@
         <v>509.2827855436706</v>
       </c>
       <c r="L23" t="n">
-        <v>607.6727116411296</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M23" t="n">
-        <v>248.9815624430165</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N23" t="n">
         <v>187.7334429629522</v>
       </c>
       <c r="O23" t="n">
-        <v>166.3270235007165</v>
+        <v>518.3299598337671</v>
       </c>
       <c r="P23" t="n">
-        <v>113.6410510947566</v>
+        <v>531.979371717684</v>
       </c>
       <c r="Q23" t="n">
-        <v>321.8134707850738</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.936520804321063</v>
+        <v>58.65468018873835</v>
       </c>
       <c r="K24" t="n">
         <v>412.9660071547065</v>
       </c>
       <c r="L24" t="n">
-        <v>131.0130041882992</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="M24" t="n">
         <v>168.7723149792803</v>
       </c>
       <c r="N24" t="n">
-        <v>523.4641242872585</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O24" t="n">
-        <v>607.6727116411296</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P24" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R24" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>30.8607660759256</v>
       </c>
       <c r="K26" t="n">
-        <v>509.2827855436706</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L26" t="n">
+        <v>139.3255048593464</v>
+      </c>
+      <c r="M26" t="n">
+        <v>181.017800542495</v>
+      </c>
+      <c r="N26" t="n">
         <v>607.6727116411296</v>
       </c>
-      <c r="M26" t="n">
-        <v>607.6727116411296</v>
-      </c>
-      <c r="N26" t="n">
-        <v>282.898181762209</v>
-      </c>
       <c r="O26" t="n">
-        <v>166.3270235007165</v>
+        <v>505.5750389481261</v>
       </c>
       <c r="P26" t="n">
-        <v>113.6410510947566</v>
+        <v>531.979371717684</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R26" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K27" t="n">
         <v>412.9660071547065</v>
       </c>
       <c r="L27" t="n">
-        <v>607.6727116411296</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M27" t="n">
-        <v>497.5909484203013</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N27" t="n">
         <v>185.0644927207464</v>
       </c>
       <c r="O27" t="n">
-        <v>151.0619125268895</v>
+        <v>509.0535232085064</v>
       </c>
       <c r="P27" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K29" t="n">
-        <v>87.89374920115645</v>
+        <v>509.2827855436706</v>
       </c>
       <c r="L29" t="n">
         <v>139.3255048593464</v>
       </c>
       <c r="M29" t="n">
-        <v>607.6727116411296</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N29" t="n">
         <v>187.7334429629522</v>
       </c>
       <c r="O29" t="n">
-        <v>498.859396527669</v>
+        <v>284.2996715600936</v>
       </c>
       <c r="P29" t="n">
         <v>531.979371717684</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>166.8548667468526</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K30" t="n">
         <v>69.16119903835425</v>
       </c>
       <c r="L30" t="n">
-        <v>607.6727116411296</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M30" t="n">
-        <v>220.866611479882</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N30" t="n">
-        <v>185.0644927207464</v>
+        <v>604.6363685601056</v>
       </c>
       <c r="O30" t="n">
         <v>607.6727116411296</v>
@@ -36931,7 +36931,7 @@
         <v>519.3753177239007</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K32" t="n">
-        <v>378.7338265449605</v>
+        <v>509.2827855436706</v>
       </c>
       <c r="L32" t="n">
-        <v>607.6727116411296</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M32" t="n">
         <v>181.017800542495</v>
@@ -37083,7 +37083,7 @@
         <v>187.7334429629522</v>
       </c>
       <c r="O32" t="n">
-        <v>166.3270235007165</v>
+        <v>284.2996715600936</v>
       </c>
       <c r="P32" t="n">
         <v>531.979371717684</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>166.8548667468526</v>
+        <v>58.65468018873835</v>
       </c>
       <c r="K33" t="n">
-        <v>69.16119903835425</v>
+        <v>412.9660071547065</v>
       </c>
       <c r="L33" t="n">
         <v>607.6727116411296</v>
       </c>
       <c r="M33" t="n">
-        <v>393.9090263244186</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N33" t="n">
         <v>185.0644927207464</v>
@@ -37171,7 +37171,7 @@
         <v>302.5709768355462</v>
       </c>
       <c r="R33" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.5088201348173</v>
+        <v>174.4880197190201</v>
       </c>
       <c r="K35" t="n">
         <v>87.89374920115645</v>
@@ -37329,7 +37329,7 @@
         <v>321.8134707850738</v>
       </c>
       <c r="R35" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>166.8548667468526</v>
       </c>
       <c r="K36" t="n">
-        <v>69.16119903835425</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="L36" t="n">
         <v>131.0130041882992</v>
@@ -37399,16 +37399,16 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O36" t="n">
-        <v>346.5606280711382</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P36" t="n">
-        <v>275.3430541419037</v>
+        <v>182.9744304402692</v>
       </c>
       <c r="Q36" t="n">
         <v>29.47050277894239</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5210028442509</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L38" t="n">
         <v>139.3255048593464</v>
@@ -37563,7 +37563,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q38" t="n">
-        <v>321.8134707850738</v>
+        <v>245.6151247044722</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K39" t="n">
-        <v>69.16119903835425</v>
+        <v>193.4423406533683</v>
       </c>
       <c r="L39" t="n">
         <v>131.0130041882992</v>
       </c>
       <c r="M39" t="n">
-        <v>346.5606280711382</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N39" t="n">
         <v>185.0644927207464</v>
       </c>
       <c r="O39" t="n">
+        <v>151.0619125268895</v>
+      </c>
+      <c r="P39" t="n">
         <v>346.5606280711382</v>
-      </c>
-      <c r="P39" t="n">
-        <v>261.4730869925772</v>
       </c>
       <c r="Q39" t="n">
         <v>29.47050277894239</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7.039366400895227</v>
+        <v>7.039366400895368</v>
       </c>
       <c r="K40" t="n">
         <v>143.2170323217709</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K41" t="n">
-        <v>87.89374920115645</v>
+        <v>245.725691394228</v>
       </c>
       <c r="L41" t="n">
         <v>139.3255048593464</v>
@@ -37791,13 +37791,13 @@
         <v>181.017800542495</v>
       </c>
       <c r="N41" t="n">
-        <v>346.5606280711382</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O41" t="n">
         <v>166.3270235007165</v>
       </c>
       <c r="P41" t="n">
-        <v>332.4714079033381</v>
+        <v>113.6410510947566</v>
       </c>
       <c r="Q41" t="n">
         <v>45.80398292719772</v>
@@ -37864,22 +37864,22 @@
         <v>69.16119903835425</v>
       </c>
       <c r="L42" t="n">
-        <v>310.6470426696518</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M42" t="n">
+        <v>168.7723149792803</v>
+      </c>
+      <c r="N42" t="n">
+        <v>185.0644927207464</v>
+      </c>
+      <c r="O42" t="n">
+        <v>155.6930158147321</v>
+      </c>
+      <c r="P42" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="N42" t="n">
-        <v>346.5606280711382</v>
-      </c>
-      <c r="O42" t="n">
-        <v>151.0619125268895</v>
-      </c>
-      <c r="P42" t="n">
-        <v>105.3737184919824</v>
-      </c>
       <c r="Q42" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R42" t="n">
         <v>10.46791021309912</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.039366400895227</v>
+        <v>7.039366400895368</v>
       </c>
       <c r="K43" t="n">
         <v>143.2170323217709</v>
@@ -37955,7 +37955,7 @@
         <v>232.3989919156118</v>
       </c>
       <c r="P43" t="n">
-        <v>177.3583181043309</v>
+        <v>177.3583181043307</v>
       </c>
       <c r="Q43" t="n">
         <v>40.60525931243461</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K44" t="n">
         <v>87.89374920115645</v>
       </c>
       <c r="L44" t="n">
-        <v>346.5606280711382</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M44" t="n">
-        <v>346.5606280711382</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N44" t="n">
-        <v>192.6130341392847</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O44" t="n">
         <v>166.3270235007165</v>
@@ -38037,7 +38037,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.80398292719772</v>
+        <v>203.6359251202694</v>
       </c>
       <c r="R44" t="n">
         <v>41.97919958420277</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K45" t="n">
-        <v>69.16119903835425</v>
+        <v>193.4423406533683</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5606280711382</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M45" t="n">
-        <v>321.1149528827509</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N45" t="n">
-        <v>346.5606280711382</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O45" t="n">
         <v>151.0619125268895</v>
       </c>
       <c r="P45" t="n">
-        <v>105.3737184919824</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="Q45" t="n">
         <v>29.47050277894239</v>
@@ -38186,7 +38186,7 @@
         <v>266.6189575307785</v>
       </c>
       <c r="N46" t="n">
-        <v>263.5464834001958</v>
+        <v>263.5464834001956</v>
       </c>
       <c r="O46" t="n">
         <v>232.3989919156118</v>
